--- a/Excel/StatusEffectsConfig.xlsx
+++ b/Excel/StatusEffectsConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5939EB-28FE-445D-B0D8-F88E3ABC4314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98962B8C-29B3-4F05-AF38-14075893EEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>间隔触发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害取值=伤害取值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -189,6 +185,20 @@
   <si>
     <t>-60%</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件触发</t>
+  </si>
+  <si>
+    <t>条件类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当间隔x秒</t>
   </si>
 </sst>
 </file>
@@ -677,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -689,20 +699,20 @@
     <col min="2" max="2" width="3" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="2" customWidth="1"/>
-    <col min="11" max="14" width="18.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="11.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="2" customWidth="1"/>
+    <col min="12" max="15" width="18.5" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -719,18 +729,21 @@
         <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -747,28 +760,31 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -799,40 +815,44 @@
       <c r="L5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="O5" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" s="9">
         <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="1">
+      <c r="H6" s="8"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="1">
         <v>10000</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C7" s="9">
         <v>201</v>
       </c>
@@ -848,21 +868,22 @@
       <c r="G7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>10000</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C8" s="9">
         <v>202</v>
       </c>
@@ -876,77 +897,82 @@
         <v>18</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="9">
         <v>203</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="1">
+      <c r="H9" s="8"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1">
         <v>10000</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
+      <c r="K9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="6"/>
       <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="9">
         <v>204</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="1">
+      <c r="H10" s="8"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="1">
         <v>10000</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
+      <c r="K10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="6"/>
       <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/StatusEffectsConfig.xlsx
+++ b/Excel/StatusEffectsConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YangChengmin\Projects\GitHub\EGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98962B8C-29B3-4F05-AF38-14075893EEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584EDD34-75FD-430F-A924-7BAA01714A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -117,10 +117,6 @@
     <t>TriggerType</t>
   </si>
   <si>
-    <t>条件触发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>触发参数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -187,9 +183,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>条件触发</t>
-  </si>
-  <si>
     <t>条件类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -199,6 +192,12 @@
   </si>
   <si>
     <t>当间隔x秒</t>
+  </si>
+  <si>
+    <t>能力激活时生效</t>
+  </si>
+  <si>
+    <t>按计时状态事件</t>
   </si>
 </sst>
 </file>
@@ -690,7 +689,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I37" sqref="H37:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -729,13 +728,13 @@
         <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -760,10 +759,10 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>4</v>
@@ -830,22 +829,24 @@
         <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="5"/>
       <c r="J6" s="1">
         <v>10000</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -865,18 +866,16 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1">
         <v>10000</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -888,28 +887,28 @@
         <v>202</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1">
         <v>10000</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -921,25 +920,27 @@
         <v>203</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="5"/>
       <c r="J9" s="1">
         <v>10000</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
@@ -950,25 +951,27 @@
         <v>204</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="5"/>
       <c r="J10" s="1">
         <v>10000</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
